--- a/public/static/misc/export/mealpay.xlsx
+++ b/public/static/misc/export/mealpay.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>동원급식비 집행내역</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,63 +26,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>원본</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지방청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회형식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>행사명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>행사명 조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>행사유형별 동원인원 (명)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>합계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>집회관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경호행사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혼잡경비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재난구조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>훈련 등</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -109,6 +61,22 @@
   </si>
   <si>
     <t>부대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관서명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동원상황구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,7 +124,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -179,13 +147,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -195,9 +213,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -207,13 +222,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -517,20 +538,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="5.625" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="7.75" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="6" max="7" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="11.25" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
     <col min="10" max="10" width="5.25" customWidth="1"/>
     <col min="11" max="11" width="11.625" customWidth="1"/>
     <col min="12" max="12" width="12.625" customWidth="1"/>
@@ -538,8 +560,8 @@
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8"/>
@@ -547,139 +569,81 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>41671</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>41698</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="4" t="s">
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="8"/>
+      <c r="J5" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="F4:I4"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
